--- a/Database/Material Database.xlsx
+++ b/Database/Material Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eds server\96 CAD Automation\Requirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EDS_GLOBAL\EDS\bin\Debug\EDS_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8239B4-9908-489D-B3A6-34CFD9B7116A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15477C57-DE74-4246-892B-EAFD970B9E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{72BCB2CF-F585-473B-8B1A-4EF778A6CC70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="9" xr2:uid="{72BCB2CF-F585-473B-8B1A-4EF778A6CC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Ext Construction" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="FreshAir" sheetId="7" r:id="rId7"/>
     <sheet name="Ceiling Finish" sheetId="9" r:id="rId8"/>
     <sheet name="Floor Finish" sheetId="8" r:id="rId9"/>
+    <sheet name="Space Type" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,10 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
-  <si>
-    <t>Wall</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>AAC_Block_Wall-300-XPS-50</t>
   </si>
@@ -244,9 +241,6 @@
     <t>Fly_Ash_Brick-75-AAC-200</t>
   </si>
   <si>
-    <t>Internal Wall</t>
-  </si>
-  <si>
     <t>Drywall Partition-50</t>
   </si>
   <si>
@@ -289,12 +283,6 @@
     <t>Tiles</t>
   </si>
   <si>
-    <t>Finishes</t>
-  </si>
-  <si>
-    <t>LPD</t>
-  </si>
-  <si>
     <t>ECBC</t>
   </si>
   <si>
@@ -313,15 +301,9 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>EPD</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
-    <t>Occupancy</t>
-  </si>
-  <si>
     <t>62.1-2010</t>
   </si>
   <si>
@@ -346,26 +328,45 @@
     <t>Metal</t>
   </si>
   <si>
-    <t>Ceiling Finish</t>
-  </si>
-  <si>
-    <t>Floor Finish</t>
+    <t>Open Office</t>
+  </si>
+  <si>
+    <t>Cabin</t>
+  </si>
+  <si>
+    <t>Conference/ Meeting</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corridor/Transition </t>
+  </si>
+  <si>
+    <t>Stairway</t>
+  </si>
+  <si>
+    <t>Restroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical/Mechanical </t>
+  </si>
+  <si>
+    <t>Bedroom</t>
+  </si>
+  <si>
+    <t>Living Room</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -429,17 +430,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,11 +773,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33341155-524B-4283-8AB1-646610D41778}">
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -786,333 +783,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7009B7FD-B50A-4399-A0B1-7675562B31D0}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
+      <c r="A11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1122,11 +1184,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EE634F-E52D-4D74-BA71-0ADE3E28DAD3}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1134,235 +1194,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
@@ -1371,17 +1429,14 @@
       <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A66" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A67">
-    <sortCondition ref="A2:A67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A66">
+    <sortCondition ref="A1:A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1389,10 +1444,269 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139C2488-2C6A-4236-903D-25CAF24A8C5E}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF81EC5D-C0E9-4E75-9E3F-3B3A2DFC6BD2}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA24DB4C-E91A-43D5-897F-BA97F4B3E66F}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B8393B-0D21-4B81-BBAD-B9B39C829B97}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E332B61E-6B40-4E96-94BB-EFC167EF7F1F}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160C8D82-0CF6-4DF3-8F6F-5A4D5CC69C20}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AFE56D-7CDF-4846-8F62-01FD1DDC89E4}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,342 +1715,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>81</v>
+      <c r="A1" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
+      <c r="A2" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
+      <c r="A3" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
+      <c r="A4" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>79</v>
+      <c r="A5" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF81EC5D-C0E9-4E75-9E3F-3B3A2DFC6BD2}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA24DB4C-E91A-43D5-897F-BA97F4B3E66F}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B8393B-0D21-4B81-BBAD-B9B39C829B97}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E332B61E-6B40-4E96-94BB-EFC167EF7F1F}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160C8D82-0CF6-4DF3-8F6F-5A4D5CC69C20}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AFE56D-7CDF-4846-8F62-01FD1DDC89E4}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
